--- a/Results/test_microclima_transects_results.xlsx
+++ b/Results/test_microclima_transects_results.xlsx
@@ -419,7 +419,7 @@
         </is>
       </c>
       <c r="G2">
-        <v>17.28283500671387</v>
+        <v>0.6626833081245422</v>
       </c>
     </row>
     <row r="3">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="G3">
-        <v>18.88519668579102</v>
+        <v>2.124025106430054</v>
       </c>
     </row>
     <row r="4">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="G21">
-        <v>18.11265754699707</v>
+        <v>1.451369404792786</v>
       </c>
     </row>
     <row r="22">

--- a/Results/test_microclima_transects_results.xlsx
+++ b/Results/test_microclima_transects_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:NB79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,7 +390,1802 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mean_1980_1989</t>
+          <t>tmed_01_01_1980_31_01_1980__H2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1981_31_01_1981__H2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1982_31_01_1982__H2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1983_31_01_1983__H2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1984_31_01_1984__H2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1985_31_01_1985__H2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1986_31_01_1986__H2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1987_31_01_1987__H2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1988_31_01_1988__H2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1989_31_01_1989__H2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1980_29_02_1980__H2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1981_28_02_1981__H2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1982_28_02_1982__H2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1983_28_02_1983__H2</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1984_29_02_1984__H2</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1985_28_02_1985__H2</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1986_28_02_1986__H2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1987_28_02_1987__H2</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1988_29_02_1988__H2</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1989_28_02_1989__H2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1980_31_03_1980__H2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1981_31_03_1981__H2</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1982_31_03_1982__H2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1983_31_03_1983__H2</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1984_31_03_1984__H2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1985_31_03_1985__H2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1986_31_03_1986__H2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1987_31_03_1987__H2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1988_31_03_1988__H2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1989_31_03_1989__H2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1980_30_04_1980__H2</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1981_30_04_1981__H2</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1982_30_04_1982__H2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1983_30_04_1983__H2</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1984_30_04_1984__H2</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1985_30_04_1985__H2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1986_30_04_1986__H2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1987_30_04_1987__H2</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1988_30_04_1988__H2</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1989_30_04_1989__H2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1980_31_05_1980__H2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1981_31_05_1981__H2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1982_31_05_1982__H2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1983_31_05_1983__H2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1984_31_05_1984__H2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1985_31_05_1985__H2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1986_31_05_1986__H2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1987_31_05_1987__H2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1988_31_05_1988__H2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1989_31_05_1989__H2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1980_30_06_1980__H2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1981_30_06_1981__H2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1982_30_06_1982__H2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1983_30_06_1983__H2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1984_30_06_1984__H2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1985_30_06_1985__H2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1986_30_06_1986__H2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1987_30_06_1987__H2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1988_30_06_1988__H2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1989_30_06_1989__H2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1980_31_07_1980__H2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1981_31_07_1981__H2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1982_31_07_1982__H2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1983_31_07_1983__H2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1984_31_07_1984__H2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1985_31_07_1985__H2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1986_31_07_1986__H2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1987_31_07_1987__H2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1988_31_07_1988__H2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1989_31_07_1989__H2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1980_31_08_1980__H2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1981_31_08_1981__H2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1982_31_08_1982__H2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1983_31_08_1983__H2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1984_31_08_1984__H2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1985_31_08_1985__H2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1986_31_08_1986__H2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1987_31_08_1987__H2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1988_31_08_1988__H2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1989_31_08_1989__H2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1980_30_09_1980__H2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1981_30_09_1981__H2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1982_30_09_1982__H2</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1983_30_09_1983__H2</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1984_30_09_1984__H2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1985_30_09_1985__H2</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1986_30_09_1986__H2</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1987_30_09_1987__H2</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1988_30_09_1988__H2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1989_30_09_1989__H2</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1980_31_10_1980__H2</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1981_31_10_1981__H2</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1982_31_10_1982__H2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1983_31_10_1983__H2</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1984_31_10_1984__H2</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1985_31_10_1985__H2</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1986_31_10_1986__H2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1987_31_10_1987__H2</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1988_31_10_1988__H2</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1989_31_10_1989__H2</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1980_30_11_1980__H2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1981_30_11_1981__H2</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1982_30_11_1982__H2</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1983_30_11_1983__H2</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1984_30_11_1984__H2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1985_30_11_1985__H2</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1986_30_11_1986__H2</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1987_30_11_1987__H2</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1988_30_11_1988__H2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1989_30_11_1989__H2</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1980_31_12_1980__H2</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1981_31_12_1981__H2</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1982_31_12_1982__H2</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1983_31_12_1983__H2</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1984_31_12_1984__H2</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1985_31_12_1985__H2</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1986_31_12_1986__H2</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1987_31_12_1987__H2</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1988_31_12_1988__H2</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1989_31_12_1989__H2</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1980_31_01_1980__H2</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1981_31_01_1981__H2</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1982_31_01_1982__H2</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1983_31_01_1983__H2</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1984_31_01_1984__H2</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1985_31_01_1985__H2</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1986_31_01_1986__H2</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1987_31_01_1987__H2</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1988_31_01_1988__H2</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1989_31_01_1989__H2</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1980_29_02_1980__H2</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1981_28_02_1981__H2</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1982_28_02_1982__H2</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1983_28_02_1983__H2</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1984_29_02_1984__H2</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1985_28_02_1985__H2</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1986_28_02_1986__H2</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1987_28_02_1987__H2</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1988_29_02_1988__H2</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1989_28_02_1989__H2</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1980_31_03_1980__H2</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1981_31_03_1981__H2</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1982_31_03_1982__H2</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1983_31_03_1983__H2</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1984_31_03_1984__H2</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1985_31_03_1985__H2</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1986_31_03_1986__H2</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1987_31_03_1987__H2</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1988_31_03_1988__H2</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1989_31_03_1989__H2</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1980_30_04_1980__H2</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1981_30_04_1981__H2</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1982_30_04_1982__H2</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1983_30_04_1983__H2</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1984_30_04_1984__H2</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1985_30_04_1985__H2</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1986_30_04_1986__H2</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1987_30_04_1987__H2</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1988_30_04_1988__H2</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1989_30_04_1989__H2</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1980_31_05_1980__H2</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1981_31_05_1981__H2</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1982_31_05_1982__H2</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1983_31_05_1983__H2</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1984_31_05_1984__H2</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1985_31_05_1985__H2</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1986_31_05_1986__H2</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1987_31_05_1987__H2</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1988_31_05_1988__H2</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1989_31_05_1989__H2</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1980_30_06_1980__H2</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1981_30_06_1981__H2</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1982_30_06_1982__H2</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1983_30_06_1983__H2</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1984_30_06_1984__H2</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1985_30_06_1985__H2</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1986_30_06_1986__H2</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1987_30_06_1987__H2</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1988_30_06_1988__H2</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1989_30_06_1989__H2</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1980_31_07_1980__H2</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1981_31_07_1981__H2</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1982_31_07_1982__H2</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1983_31_07_1983__H2</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1984_31_07_1984__H2</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1985_31_07_1985__H2</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1986_31_07_1986__H2</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1987_31_07_1987__H2</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1988_31_07_1988__H2</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1989_31_07_1989__H2</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1980_31_08_1980__H2</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1981_31_08_1981__H2</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1982_31_08_1982__H2</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1983_31_08_1983__H2</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1984_31_08_1984__H2</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1985_31_08_1985__H2</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1986_31_08_1986__H2</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1987_31_08_1987__H2</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1988_31_08_1988__H2</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1989_31_08_1989__H2</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1980_30_09_1980__H2</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1981_30_09_1981__H2</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1982_30_09_1982__H2</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1983_30_09_1983__H2</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1984_30_09_1984__H2</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1985_30_09_1985__H2</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1986_30_09_1986__H2</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1987_30_09_1987__H2</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1988_30_09_1988__H2</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1989_30_09_1989__H2</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1980_31_10_1980__H2</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1981_31_10_1981__H2</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1982_31_10_1982__H2</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1983_31_10_1983__H2</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1984_31_10_1984__H2</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1985_31_10_1985__H2</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1986_31_10_1986__H2</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1987_31_10_1987__H2</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1988_31_10_1988__H2</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1989_31_10_1989__H2</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1980_30_11_1980__H2</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1981_30_11_1981__H2</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1982_30_11_1982__H2</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1983_30_11_1983__H2</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1984_30_11_1984__H2</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1985_30_11_1985__H2</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1986_30_11_1986__H2</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1987_30_11_1987__H2</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1988_30_11_1988__H2</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1989_30_11_1989__H2</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1980_31_12_1980__H2</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1981_31_12_1981__H2</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1982_31_12_1982__H2</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1983_31_12_1983__H2</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1984_31_12_1984__H2</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1985_31_12_1985__H2</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1986_31_12_1986__H2</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1987_31_12_1987__H2</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1988_31_12_1988__H2</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1989_31_12_1989__H2</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1980_31_01_1980__H2</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1981_31_01_1981__H2</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1982_31_01_1982__H2</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1983_31_01_1983__H2</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1984_31_01_1984__H2</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1985_31_01_1985__H2</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1986_31_01_1986__H2</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1987_31_01_1987__H2</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1988_31_01_1988__H2</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_01_1989_31_01_1989__H2</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1980_29_02_1980__H2</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1981_28_02_1981__H2</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1982_28_02_1982__H2</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1983_28_02_1983__H2</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1984_29_02_1984__H2</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1985_28_02_1985__H2</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1986_28_02_1986__H2</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1987_28_02_1987__H2</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1988_29_02_1988__H2</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_02_1989_28_02_1989__H2</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1980_31_03_1980__H2</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1981_31_03_1981__H2</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1982_31_03_1982__H2</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1983_31_03_1983__H2</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1984_31_03_1984__H2</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1985_31_03_1985__H2</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1986_31_03_1986__H2</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1987_31_03_1987__H2</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1988_31_03_1988__H2</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_03_1989_31_03_1989__H2</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1980_30_04_1980__H2</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1981_30_04_1981__H2</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1982_30_04_1982__H2</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1983_30_04_1983__H2</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1984_30_04_1984__H2</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1985_30_04_1985__H2</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1986_30_04_1986__H2</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1987_30_04_1987__H2</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1988_30_04_1988__H2</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_04_1989_30_04_1989__H2</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1980_31_05_1980__H2</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1981_31_05_1981__H2</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1982_31_05_1982__H2</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1983_31_05_1983__H2</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1984_31_05_1984__H2</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1985_31_05_1985__H2</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1986_31_05_1986__H2</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1987_31_05_1987__H2</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1988_31_05_1988__H2</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_05_1989_31_05_1989__H2</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1980_30_06_1980__H2</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1981_30_06_1981__H2</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1982_30_06_1982__H2</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1983_30_06_1983__H2</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1984_30_06_1984__H2</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1985_30_06_1985__H2</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1986_30_06_1986__H2</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1987_30_06_1987__H2</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1988_30_06_1988__H2</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_06_1989_30_06_1989__H2</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1980_31_07_1980__H2</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1981_31_07_1981__H2</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1982_31_07_1982__H2</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1983_31_07_1983__H2</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1984_31_07_1984__H2</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1985_31_07_1985__H2</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1986_31_07_1986__H2</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1987_31_07_1987__H2</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1988_31_07_1988__H2</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_07_1989_31_07_1989__H2</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1980_31_08_1980__H2</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1981_31_08_1981__H2</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1982_31_08_1982__H2</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1983_31_08_1983__H2</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1984_31_08_1984__H2</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1985_31_08_1985__H2</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1986_31_08_1986__H2</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1987_31_08_1987__H2</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1988_31_08_1988__H2</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_08_1989_31_08_1989__H2</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1980_30_09_1980__H2</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1981_30_09_1981__H2</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1982_30_09_1982__H2</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1983_30_09_1983__H2</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1984_30_09_1984__H2</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1985_30_09_1985__H2</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1986_30_09_1986__H2</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1987_30_09_1987__H2</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1988_30_09_1988__H2</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_09_1989_30_09_1989__H2</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1980_31_10_1980__H2</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1981_31_10_1981__H2</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1982_31_10_1982__H2</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1983_31_10_1983__H2</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1984_31_10_1984__H2</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1985_31_10_1985__H2</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1986_31_10_1986__H2</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1987_31_10_1987__H2</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1988_31_10_1988__H2</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_10_1989_31_10_1989__H2</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1980_30_11_1980__H2</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1981_30_11_1981__H2</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1982_30_11_1982__H2</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1983_30_11_1983__H2</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1984_30_11_1984__H2</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1985_30_11_1985__H2</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1986_30_11_1986__H2</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1987_30_11_1987__H2</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1988_30_11_1988__H2</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_11_1989_30_11_1989__H2</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1980_31_12_1980__H2</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1981_31_12_1981__H2</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1982_31_12_1982__H2</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1983_31_12_1983__H2</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1984_31_12_1984__H2</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1985_31_12_1985__H2</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1986_31_12_1986__H2</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1987_31_12_1987__H2</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1988_31_12_1988__H2</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>tmed_01_12_1989_31_12_1989__H2</t>
         </is>
       </c>
     </row>
@@ -419,7 +2214,1084 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.6626833081245422</v>
+        <v>-10.71300029754639</v>
+      </c>
+      <c r="H2">
+        <v>-11.33686923980713</v>
+      </c>
+      <c r="I2">
+        <v>-7.501607418060303</v>
+      </c>
+      <c r="J2">
+        <v>-11.08382797241211</v>
+      </c>
+      <c r="K2">
+        <v>-9.583464622497559</v>
+      </c>
+      <c r="L2">
+        <v>-13.35680389404297</v>
+      </c>
+      <c r="M2">
+        <v>-10.56919956207275</v>
+      </c>
+      <c r="N2">
+        <v>-10.98650741577148</v>
+      </c>
+      <c r="O2">
+        <v>-7.153255939483643</v>
+      </c>
+      <c r="P2">
+        <v>-12.39670658111572</v>
+      </c>
+      <c r="Q2">
+        <v>-6.500940322875977</v>
+      </c>
+      <c r="R2">
+        <v>-10.4254674911499</v>
+      </c>
+      <c r="S2">
+        <v>-7.414230823516846</v>
+      </c>
+      <c r="T2">
+        <v>-10.74999237060547</v>
+      </c>
+      <c r="U2">
+        <v>-10.21969032287598</v>
+      </c>
+      <c r="V2">
+        <v>-5.308609485626221</v>
+      </c>
+      <c r="W2">
+        <v>-9.044462203979492</v>
+      </c>
+      <c r="X2">
+        <v>-8.040078163146973</v>
+      </c>
+      <c r="Y2">
+        <v>-9.029358863830566</v>
+      </c>
+      <c r="Z2">
+        <v>-8.953805923461914</v>
+      </c>
+      <c r="AA2">
+        <v>-5.524720668792725</v>
+      </c>
+      <c r="AB2">
+        <v>-2.339091062545776</v>
+      </c>
+      <c r="AC2">
+        <v>-5.372835636138916</v>
+      </c>
+      <c r="AD2">
+        <v>-4.179927825927734</v>
+      </c>
+      <c r="AE2">
+        <v>-8.729048728942871</v>
+      </c>
+      <c r="AF2">
+        <v>-7.212074279785156</v>
+      </c>
+      <c r="AG2">
+        <v>-5.546088218688965</v>
+      </c>
+      <c r="AH2">
+        <v>-4.248984336853027</v>
+      </c>
+      <c r="AI2">
+        <v>-5.7810959815979</v>
+      </c>
+      <c r="AJ2">
+        <v>-3.026407241821289</v>
+      </c>
+      <c r="AK2">
+        <v>-2.928605556488037</v>
+      </c>
+      <c r="AL2">
+        <v>-2.187649726867676</v>
+      </c>
+      <c r="AM2">
+        <v>-0.7297601699829102</v>
+      </c>
+      <c r="AN2">
+        <v>-2.885715961456299</v>
+      </c>
+      <c r="AO2">
+        <v>1.167659759521484</v>
+      </c>
+      <c r="AP2">
+        <v>-0.2350838482379913</v>
+      </c>
+      <c r="AQ2">
+        <v>-5.020771026611328</v>
+      </c>
+      <c r="AR2">
+        <v>0.6358712911605835</v>
+      </c>
+      <c r="AS2">
+        <v>-1.620457410812378</v>
+      </c>
+      <c r="AT2">
+        <v>-3.979941129684448</v>
+      </c>
+      <c r="AU2">
+        <v>1.367087364196777</v>
+      </c>
+      <c r="AV2">
+        <v>2.254881620407105</v>
+      </c>
+      <c r="AW2">
+        <v>3.774532556533814</v>
+      </c>
+      <c r="AX2">
+        <v>1.335615873336792</v>
+      </c>
+      <c r="AY2">
+        <v>-1.48036003112793</v>
+      </c>
+      <c r="AZ2">
+        <v>1.522987127304077</v>
+      </c>
+      <c r="BA2">
+        <v>6.127987861633301</v>
+      </c>
+      <c r="BB2">
+        <v>3.891185998916626</v>
+      </c>
+      <c r="BC2">
+        <v>3.127967119216919</v>
+      </c>
+      <c r="BD2">
+        <v>5.533263683319092</v>
+      </c>
+      <c r="BE2">
+        <v>7.750303745269775</v>
+      </c>
+      <c r="BF2">
+        <v>11.16602039337158</v>
+      </c>
+      <c r="BG2">
+        <v>10.03165435791016</v>
+      </c>
+      <c r="BH2">
+        <v>11.2014741897583</v>
+      </c>
+      <c r="BI2">
+        <v>8.244510650634766</v>
+      </c>
+      <c r="BJ2">
+        <v>9.778971672058106</v>
+      </c>
+      <c r="BK2">
+        <v>10.02925682067871</v>
+      </c>
+      <c r="BL2">
+        <v>9.715258598327637</v>
+      </c>
+      <c r="BM2">
+        <v>6.755819320678711</v>
+      </c>
+      <c r="BN2">
+        <v>10.37350273132324</v>
+      </c>
+      <c r="BO2">
+        <v>11.27491474151611</v>
+      </c>
+      <c r="BP2">
+        <v>11.79827499389648</v>
+      </c>
+      <c r="BQ2">
+        <v>13.0976448059082</v>
+      </c>
+      <c r="BR2">
+        <v>13.37720489501953</v>
+      </c>
+      <c r="BS2">
+        <v>14.11017608642578</v>
+      </c>
+      <c r="BT2">
+        <v>14.21171760559082</v>
+      </c>
+      <c r="BU2">
+        <v>14.33935356140137</v>
+      </c>
+      <c r="BV2">
+        <v>12.93252468109131</v>
+      </c>
+      <c r="BW2">
+        <v>12.08489418029785</v>
+      </c>
+      <c r="BX2">
+        <v>14.73263168334961</v>
+      </c>
+      <c r="BY2">
+        <v>13.82395648956299</v>
+      </c>
+      <c r="BZ2">
+        <v>12.48782730102539</v>
+      </c>
+      <c r="CA2">
+        <v>11.984206199646</v>
+      </c>
+      <c r="CB2">
+        <v>10.2098274230957</v>
+      </c>
+      <c r="CC2">
+        <v>10.76722240447998</v>
+      </c>
+      <c r="CD2">
+        <v>12.06713199615479</v>
+      </c>
+      <c r="CE2">
+        <v>11.32320594787598</v>
+      </c>
+      <c r="CF2">
+        <v>14.2669267654419</v>
+      </c>
+      <c r="CG2">
+        <v>13.34336566925049</v>
+      </c>
+      <c r="CH2">
+        <v>14.07780075073242</v>
+      </c>
+      <c r="CI2">
+        <v>10.3299617767334</v>
+      </c>
+      <c r="CJ2">
+        <v>8.208830833435059</v>
+      </c>
+      <c r="CK2">
+        <v>7.437087535858154</v>
+      </c>
+      <c r="CL2">
+        <v>10.18858814239502</v>
+      </c>
+      <c r="CM2">
+        <v>6.283241271972656</v>
+      </c>
+      <c r="CN2">
+        <v>11.1130313873291</v>
+      </c>
+      <c r="CO2">
+        <v>9.021153450012207</v>
+      </c>
+      <c r="CP2">
+        <v>10.533935546875</v>
+      </c>
+      <c r="CQ2">
+        <v>7.797103881835938</v>
+      </c>
+      <c r="CR2">
+        <v>6.743107795715332</v>
+      </c>
+      <c r="CS2">
+        <v>0.5361399054527283</v>
+      </c>
+      <c r="CT2">
+        <v>0.9208513498306274</v>
+      </c>
+      <c r="CU2">
+        <v>-0.2438515722751617</v>
+      </c>
+      <c r="CV2">
+        <v>2.567207098007202</v>
+      </c>
+      <c r="CW2">
+        <v>0.4058957099914551</v>
+      </c>
+      <c r="CX2">
+        <v>2.822422027587891</v>
+      </c>
+      <c r="CY2">
+        <v>2.184691429138184</v>
+      </c>
+      <c r="CZ2">
+        <v>0.6851779818534851</v>
+      </c>
+      <c r="DA2">
+        <v>1.8889319896698</v>
+      </c>
+      <c r="DB2">
+        <v>1.993338465690613</v>
+      </c>
+      <c r="DC2">
+        <v>-5.819179534912109</v>
+      </c>
+      <c r="DD2">
+        <v>-3.679035425186157</v>
+      </c>
+      <c r="DE2">
+        <v>-5.507914066314697</v>
+      </c>
+      <c r="DF2">
+        <v>-0.9384433031082153</v>
+      </c>
+      <c r="DG2">
+        <v>-3.550892353057861</v>
+      </c>
+      <c r="DH2">
+        <v>-7.094679355621338</v>
+      </c>
+      <c r="DI2">
+        <v>-6.241086483001709</v>
+      </c>
+      <c r="DJ2">
+        <v>-6.170083999633789</v>
+      </c>
+      <c r="DK2">
+        <v>-5.561863422393799</v>
+      </c>
+      <c r="DL2">
+        <v>-2.330499887466431</v>
+      </c>
+      <c r="DM2">
+        <v>-13.50023174285889</v>
+      </c>
+      <c r="DN2">
+        <v>-7.398637771606445</v>
+      </c>
+      <c r="DO2">
+        <v>-9.843374252319336</v>
+      </c>
+      <c r="DP2">
+        <v>-9.753237724304199</v>
+      </c>
+      <c r="DQ2">
+        <v>-9.241842269897461</v>
+      </c>
+      <c r="DR2">
+        <v>-8.788843154907227</v>
+      </c>
+      <c r="DS2">
+        <v>-10.05578231811523</v>
+      </c>
+      <c r="DT2">
+        <v>-7.982512474060059</v>
+      </c>
+      <c r="DU2">
+        <v>-12.58476734161377</v>
+      </c>
+      <c r="DV2">
+        <v>-4.55206823348999</v>
+      </c>
+      <c r="DW2">
+        <v>-10.71300029754639</v>
+      </c>
+      <c r="DX2">
+        <v>-11.33686923980713</v>
+      </c>
+      <c r="DY2">
+        <v>-7.501607418060303</v>
+      </c>
+      <c r="DZ2">
+        <v>-11.08382797241211</v>
+      </c>
+      <c r="EA2">
+        <v>-9.583464622497559</v>
+      </c>
+      <c r="EB2">
+        <v>-13.35680389404297</v>
+      </c>
+      <c r="EC2">
+        <v>-10.56919956207275</v>
+      </c>
+      <c r="ED2">
+        <v>-10.98650741577148</v>
+      </c>
+      <c r="EE2">
+        <v>-7.153255939483643</v>
+      </c>
+      <c r="EF2">
+        <v>-12.39670658111572</v>
+      </c>
+      <c r="EG2">
+        <v>-6.500940322875977</v>
+      </c>
+      <c r="EH2">
+        <v>-10.4254674911499</v>
+      </c>
+      <c r="EI2">
+        <v>-7.414230823516846</v>
+      </c>
+      <c r="EJ2">
+        <v>-10.74999237060547</v>
+      </c>
+      <c r="EK2">
+        <v>-10.21969032287598</v>
+      </c>
+      <c r="EL2">
+        <v>-5.308609485626221</v>
+      </c>
+      <c r="EM2">
+        <v>-9.044462203979492</v>
+      </c>
+      <c r="EN2">
+        <v>-8.040078163146973</v>
+      </c>
+      <c r="EO2">
+        <v>-9.029358863830566</v>
+      </c>
+      <c r="EP2">
+        <v>-8.953805923461914</v>
+      </c>
+      <c r="EQ2">
+        <v>-5.524720668792725</v>
+      </c>
+      <c r="ER2">
+        <v>-2.339091062545776</v>
+      </c>
+      <c r="ES2">
+        <v>-5.372835636138916</v>
+      </c>
+      <c r="ET2">
+        <v>-4.179927825927734</v>
+      </c>
+      <c r="EU2">
+        <v>-8.729048728942871</v>
+      </c>
+      <c r="EV2">
+        <v>-7.212074279785156</v>
+      </c>
+      <c r="EW2">
+        <v>-5.546088218688965</v>
+      </c>
+      <c r="EX2">
+        <v>-4.248984336853027</v>
+      </c>
+      <c r="EY2">
+        <v>-5.7810959815979</v>
+      </c>
+      <c r="EZ2">
+        <v>-3.026407241821289</v>
+      </c>
+      <c r="FA2">
+        <v>-2.928605556488037</v>
+      </c>
+      <c r="FB2">
+        <v>-2.187649726867676</v>
+      </c>
+      <c r="FC2">
+        <v>-0.7297601699829102</v>
+      </c>
+      <c r="FD2">
+        <v>-2.885715961456299</v>
+      </c>
+      <c r="FE2">
+        <v>1.167659759521484</v>
+      </c>
+      <c r="FF2">
+        <v>-0.2350838482379913</v>
+      </c>
+      <c r="FG2">
+        <v>-5.020771026611328</v>
+      </c>
+      <c r="FH2">
+        <v>0.6358712911605835</v>
+      </c>
+      <c r="FI2">
+        <v>-1.620457410812378</v>
+      </c>
+      <c r="FJ2">
+        <v>-3.979941129684448</v>
+      </c>
+      <c r="FK2">
+        <v>1.367087364196777</v>
+      </c>
+      <c r="FL2">
+        <v>2.254881620407105</v>
+      </c>
+      <c r="FM2">
+        <v>3.774532556533814</v>
+      </c>
+      <c r="FN2">
+        <v>1.335615873336792</v>
+      </c>
+      <c r="FO2">
+        <v>-1.48036003112793</v>
+      </c>
+      <c r="FP2">
+        <v>1.522987127304077</v>
+      </c>
+      <c r="FQ2">
+        <v>6.127987861633301</v>
+      </c>
+      <c r="FR2">
+        <v>3.891185998916626</v>
+      </c>
+      <c r="FS2">
+        <v>3.127967119216919</v>
+      </c>
+      <c r="FT2">
+        <v>5.533263683319092</v>
+      </c>
+      <c r="FU2">
+        <v>7.750303745269775</v>
+      </c>
+      <c r="FV2">
+        <v>11.16602039337158</v>
+      </c>
+      <c r="FW2">
+        <v>10.03165435791016</v>
+      </c>
+      <c r="FX2">
+        <v>11.2014741897583</v>
+      </c>
+      <c r="FY2">
+        <v>8.244510650634766</v>
+      </c>
+      <c r="FZ2">
+        <v>9.778971672058106</v>
+      </c>
+      <c r="GA2">
+        <v>10.02925682067871</v>
+      </c>
+      <c r="GB2">
+        <v>9.715258598327637</v>
+      </c>
+      <c r="GC2">
+        <v>6.755819320678711</v>
+      </c>
+      <c r="GD2">
+        <v>10.37350273132324</v>
+      </c>
+      <c r="GE2">
+        <v>11.27491474151611</v>
+      </c>
+      <c r="GF2">
+        <v>11.79827499389648</v>
+      </c>
+      <c r="GG2">
+        <v>13.0976448059082</v>
+      </c>
+      <c r="GH2">
+        <v>13.37720489501953</v>
+      </c>
+      <c r="GI2">
+        <v>14.11017608642578</v>
+      </c>
+      <c r="GJ2">
+        <v>14.21171760559082</v>
+      </c>
+      <c r="GK2">
+        <v>14.33935356140137</v>
+      </c>
+      <c r="GL2">
+        <v>12.93252468109131</v>
+      </c>
+      <c r="GM2">
+        <v>12.08489418029785</v>
+      </c>
+      <c r="GN2">
+        <v>14.73263168334961</v>
+      </c>
+      <c r="GO2">
+        <v>13.82395648956299</v>
+      </c>
+      <c r="GP2">
+        <v>12.48782730102539</v>
+      </c>
+      <c r="GQ2">
+        <v>11.984206199646</v>
+      </c>
+      <c r="GR2">
+        <v>10.2098274230957</v>
+      </c>
+      <c r="GS2">
+        <v>10.76722240447998</v>
+      </c>
+      <c r="GT2">
+        <v>12.06713199615479</v>
+      </c>
+      <c r="GU2">
+        <v>11.32320594787598</v>
+      </c>
+      <c r="GV2">
+        <v>14.2669267654419</v>
+      </c>
+      <c r="GW2">
+        <v>13.34336566925049</v>
+      </c>
+      <c r="GX2">
+        <v>14.07780075073242</v>
+      </c>
+      <c r="GY2">
+        <v>10.3299617767334</v>
+      </c>
+      <c r="GZ2">
+        <v>8.208830833435059</v>
+      </c>
+      <c r="HA2">
+        <v>7.437087535858154</v>
+      </c>
+      <c r="HB2">
+        <v>10.18858814239502</v>
+      </c>
+      <c r="HC2">
+        <v>6.283241271972656</v>
+      </c>
+      <c r="HD2">
+        <v>11.1130313873291</v>
+      </c>
+      <c r="HE2">
+        <v>9.021153450012207</v>
+      </c>
+      <c r="HF2">
+        <v>10.533935546875</v>
+      </c>
+      <c r="HG2">
+        <v>7.797103881835938</v>
+      </c>
+      <c r="HH2">
+        <v>6.743107795715332</v>
+      </c>
+      <c r="HI2">
+        <v>0.5361399054527283</v>
+      </c>
+      <c r="HJ2">
+        <v>0.9208513498306274</v>
+      </c>
+      <c r="HK2">
+        <v>-0.2438515722751617</v>
+      </c>
+      <c r="HL2">
+        <v>2.567207098007202</v>
+      </c>
+      <c r="HM2">
+        <v>0.4058957099914551</v>
+      </c>
+      <c r="HN2">
+        <v>2.822422027587891</v>
+      </c>
+      <c r="HO2">
+        <v>2.184691429138184</v>
+      </c>
+      <c r="HP2">
+        <v>0.6851779818534851</v>
+      </c>
+      <c r="HQ2">
+        <v>1.8889319896698</v>
+      </c>
+      <c r="HR2">
+        <v>1.993338465690613</v>
+      </c>
+      <c r="HS2">
+        <v>-5.819179534912109</v>
+      </c>
+      <c r="HT2">
+        <v>-3.679035425186157</v>
+      </c>
+      <c r="HU2">
+        <v>-5.507914066314697</v>
+      </c>
+      <c r="HV2">
+        <v>-0.9384433031082153</v>
+      </c>
+      <c r="HW2">
+        <v>-3.550892353057861</v>
+      </c>
+      <c r="HX2">
+        <v>-7.094679355621338</v>
+      </c>
+      <c r="HY2">
+        <v>-6.241086483001709</v>
+      </c>
+      <c r="HZ2">
+        <v>-6.170083999633789</v>
+      </c>
+      <c r="IA2">
+        <v>-5.561863422393799</v>
+      </c>
+      <c r="IB2">
+        <v>-2.330499887466431</v>
+      </c>
+      <c r="IC2">
+        <v>-13.50023174285889</v>
+      </c>
+      <c r="ID2">
+        <v>-7.398637771606445</v>
+      </c>
+      <c r="IE2">
+        <v>-9.843374252319336</v>
+      </c>
+      <c r="IF2">
+        <v>-9.753237724304199</v>
+      </c>
+      <c r="IG2">
+        <v>-9.241842269897461</v>
+      </c>
+      <c r="IH2">
+        <v>-8.788843154907227</v>
+      </c>
+      <c r="II2">
+        <v>-10.05578231811523</v>
+      </c>
+      <c r="IJ2">
+        <v>-7.982512474060059</v>
+      </c>
+      <c r="IK2">
+        <v>-12.58476734161377</v>
+      </c>
+      <c r="IL2">
+        <v>-4.55206823348999</v>
+      </c>
+      <c r="IM2">
+        <v>-10.71300029754639</v>
+      </c>
+      <c r="IN2">
+        <v>-11.33686923980713</v>
+      </c>
+      <c r="IO2">
+        <v>-7.501607418060303</v>
+      </c>
+      <c r="IP2">
+        <v>-11.08382797241211</v>
+      </c>
+      <c r="IQ2">
+        <v>-9.583464622497559</v>
+      </c>
+      <c r="IR2">
+        <v>-13.35680389404297</v>
+      </c>
+      <c r="IS2">
+        <v>-10.56919956207275</v>
+      </c>
+      <c r="IT2">
+        <v>-10.98650741577148</v>
+      </c>
+      <c r="IU2">
+        <v>-7.153255939483643</v>
+      </c>
+      <c r="IV2">
+        <v>-12.39670658111572</v>
+      </c>
+      <c r="IW2">
+        <v>-6.500940322875977</v>
+      </c>
+      <c r="IX2">
+        <v>-10.4254674911499</v>
+      </c>
+      <c r="IY2">
+        <v>-7.414230823516846</v>
+      </c>
+      <c r="IZ2">
+        <v>-10.74999237060547</v>
+      </c>
+      <c r="JA2">
+        <v>-10.21969032287598</v>
+      </c>
+      <c r="JB2">
+        <v>-5.308609485626221</v>
+      </c>
+      <c r="JC2">
+        <v>-9.044462203979492</v>
+      </c>
+      <c r="JD2">
+        <v>-8.040078163146973</v>
+      </c>
+      <c r="JE2">
+        <v>-9.029358863830566</v>
+      </c>
+      <c r="JF2">
+        <v>-8.953805923461914</v>
+      </c>
+      <c r="JG2">
+        <v>-5.524720668792725</v>
+      </c>
+      <c r="JH2">
+        <v>-2.339091062545776</v>
+      </c>
+      <c r="JI2">
+        <v>-5.372835636138916</v>
+      </c>
+      <c r="JJ2">
+        <v>-4.179927825927734</v>
+      </c>
+      <c r="JK2">
+        <v>-8.729048728942871</v>
+      </c>
+      <c r="JL2">
+        <v>-7.212074279785156</v>
+      </c>
+      <c r="JM2">
+        <v>-5.546088218688965</v>
+      </c>
+      <c r="JN2">
+        <v>-4.248984336853027</v>
+      </c>
+      <c r="JO2">
+        <v>-5.7810959815979</v>
+      </c>
+      <c r="JP2">
+        <v>-3.026407241821289</v>
+      </c>
+      <c r="JQ2">
+        <v>-2.928605556488037</v>
+      </c>
+      <c r="JR2">
+        <v>-2.187649726867676</v>
+      </c>
+      <c r="JS2">
+        <v>-0.7297601699829102</v>
+      </c>
+      <c r="JT2">
+        <v>-2.885715961456299</v>
+      </c>
+      <c r="JU2">
+        <v>1.167659759521484</v>
+      </c>
+      <c r="JV2">
+        <v>-0.2350838482379913</v>
+      </c>
+      <c r="JW2">
+        <v>-5.020771026611328</v>
+      </c>
+      <c r="JX2">
+        <v>0.6358712911605835</v>
+      </c>
+      <c r="JY2">
+        <v>-1.620457410812378</v>
+      </c>
+      <c r="JZ2">
+        <v>-3.979941129684448</v>
+      </c>
+      <c r="KA2">
+        <v>1.367087364196777</v>
+      </c>
+      <c r="KB2">
+        <v>2.254881620407105</v>
+      </c>
+      <c r="KC2">
+        <v>3.774532556533814</v>
+      </c>
+      <c r="KD2">
+        <v>1.335615873336792</v>
+      </c>
+      <c r="KE2">
+        <v>-1.48036003112793</v>
+      </c>
+      <c r="KF2">
+        <v>1.522987127304077</v>
+      </c>
+      <c r="KG2">
+        <v>6.127987861633301</v>
+      </c>
+      <c r="KH2">
+        <v>3.891185998916626</v>
+      </c>
+      <c r="KI2">
+        <v>3.127967119216919</v>
+      </c>
+      <c r="KJ2">
+        <v>5.533263683319092</v>
+      </c>
+      <c r="KK2">
+        <v>7.750303745269775</v>
+      </c>
+      <c r="KL2">
+        <v>11.16602039337158</v>
+      </c>
+      <c r="KM2">
+        <v>10.03165435791016</v>
+      </c>
+      <c r="KN2">
+        <v>11.2014741897583</v>
+      </c>
+      <c r="KO2">
+        <v>8.244510650634766</v>
+      </c>
+      <c r="KP2">
+        <v>9.778971672058106</v>
+      </c>
+      <c r="KQ2">
+        <v>10.02925682067871</v>
+      </c>
+      <c r="KR2">
+        <v>9.715258598327637</v>
+      </c>
+      <c r="KS2">
+        <v>6.755819320678711</v>
+      </c>
+      <c r="KT2">
+        <v>10.37350273132324</v>
+      </c>
+      <c r="KU2">
+        <v>11.27491474151611</v>
+      </c>
+      <c r="KV2">
+        <v>11.79827499389648</v>
+      </c>
+      <c r="KW2">
+        <v>13.0976448059082</v>
+      </c>
+      <c r="KX2">
+        <v>13.37720489501953</v>
+      </c>
+      <c r="KY2">
+        <v>14.11017608642578</v>
+      </c>
+      <c r="KZ2">
+        <v>14.21171760559082</v>
+      </c>
+      <c r="LA2">
+        <v>14.33935356140137</v>
+      </c>
+      <c r="LB2">
+        <v>12.93252468109131</v>
+      </c>
+      <c r="LC2">
+        <v>12.08489418029785</v>
+      </c>
+      <c r="LD2">
+        <v>14.73263168334961</v>
+      </c>
+      <c r="LE2">
+        <v>13.82395648956299</v>
+      </c>
+      <c r="LF2">
+        <v>12.48782730102539</v>
+      </c>
+      <c r="LG2">
+        <v>11.984206199646</v>
+      </c>
+      <c r="LH2">
+        <v>10.2098274230957</v>
+      </c>
+      <c r="LI2">
+        <v>10.76722240447998</v>
+      </c>
+      <c r="LJ2">
+        <v>12.06713199615479</v>
+      </c>
+      <c r="LK2">
+        <v>11.32320594787598</v>
+      </c>
+      <c r="LL2">
+        <v>14.2669267654419</v>
+      </c>
+      <c r="LM2">
+        <v>13.34336566925049</v>
+      </c>
+      <c r="LN2">
+        <v>14.07780075073242</v>
+      </c>
+      <c r="LO2">
+        <v>10.3299617767334</v>
+      </c>
+      <c r="LP2">
+        <v>8.208830833435059</v>
+      </c>
+      <c r="LQ2">
+        <v>7.437087535858154</v>
+      </c>
+      <c r="LR2">
+        <v>10.18858814239502</v>
+      </c>
+      <c r="LS2">
+        <v>6.283241271972656</v>
+      </c>
+      <c r="LT2">
+        <v>11.1130313873291</v>
+      </c>
+      <c r="LU2">
+        <v>9.021153450012207</v>
+      </c>
+      <c r="LV2">
+        <v>10.533935546875</v>
+      </c>
+      <c r="LW2">
+        <v>7.797103881835938</v>
+      </c>
+      <c r="LX2">
+        <v>6.743107795715332</v>
+      </c>
+      <c r="LY2">
+        <v>0.5361399054527283</v>
+      </c>
+      <c r="LZ2">
+        <v>0.9208513498306274</v>
+      </c>
+      <c r="MA2">
+        <v>-0.2438515722751617</v>
+      </c>
+      <c r="MB2">
+        <v>2.567207098007202</v>
+      </c>
+      <c r="MC2">
+        <v>0.4058957099914551</v>
+      </c>
+      <c r="MD2">
+        <v>2.822422027587891</v>
+      </c>
+      <c r="ME2">
+        <v>2.184691429138184</v>
+      </c>
+      <c r="MF2">
+        <v>0.6851779818534851</v>
+      </c>
+      <c r="MG2">
+        <v>1.8889319896698</v>
+      </c>
+      <c r="MH2">
+        <v>1.993338465690613</v>
+      </c>
+      <c r="MI2">
+        <v>-5.819179534912109</v>
+      </c>
+      <c r="MJ2">
+        <v>-3.679035425186157</v>
+      </c>
+      <c r="MK2">
+        <v>-5.507914066314697</v>
+      </c>
+      <c r="ML2">
+        <v>-0.9384433031082153</v>
+      </c>
+      <c r="MM2">
+        <v>-3.550892353057861</v>
+      </c>
+      <c r="MN2">
+        <v>-7.094679355621338</v>
+      </c>
+      <c r="MO2">
+        <v>-6.241086483001709</v>
+      </c>
+      <c r="MP2">
+        <v>-6.170083999633789</v>
+      </c>
+      <c r="MQ2">
+        <v>-5.561863422393799</v>
+      </c>
+      <c r="MR2">
+        <v>-2.330499887466431</v>
+      </c>
+      <c r="MS2">
+        <v>-13.50023174285889</v>
+      </c>
+      <c r="MT2">
+        <v>-7.398637771606445</v>
+      </c>
+      <c r="MU2">
+        <v>-9.843374252319336</v>
+      </c>
+      <c r="MV2">
+        <v>-9.753237724304199</v>
+      </c>
+      <c r="MW2">
+        <v>-9.241842269897461</v>
+      </c>
+      <c r="MX2">
+        <v>-8.788843154907227</v>
+      </c>
+      <c r="MY2">
+        <v>-10.05578231811523</v>
+      </c>
+      <c r="MZ2">
+        <v>-7.982512474060059</v>
+      </c>
+      <c r="NA2">
+        <v>-12.58476734161377</v>
+      </c>
+      <c r="NB2">
+        <v>-4.55206823348999</v>
       </c>
     </row>
     <row r="3">
@@ -447,7 +3319,1084 @@
         </is>
       </c>
       <c r="G3">
-        <v>2.124025106430054</v>
+        <v>-9.045572280883789</v>
+      </c>
+      <c r="H3">
+        <v>-9.682982444763184</v>
+      </c>
+      <c r="I3">
+        <v>-5.96462869644165</v>
+      </c>
+      <c r="J3">
+        <v>-9.399484634399414</v>
+      </c>
+      <c r="K3">
+        <v>-7.998614311218262</v>
+      </c>
+      <c r="L3">
+        <v>-11.52291679382324</v>
+      </c>
+      <c r="M3">
+        <v>-8.964305877685547</v>
+      </c>
+      <c r="N3">
+        <v>-9.301072120666504</v>
+      </c>
+      <c r="O3">
+        <v>-5.644261837005615</v>
+      </c>
+      <c r="P3">
+        <v>-10.72205448150635</v>
+      </c>
+      <c r="Q3">
+        <v>-5.003952026367188</v>
+      </c>
+      <c r="R3">
+        <v>-8.806482315063477</v>
+      </c>
+      <c r="S3">
+        <v>-5.892090797424316</v>
+      </c>
+      <c r="T3">
+        <v>-9.047993659973145</v>
+      </c>
+      <c r="U3">
+        <v>-8.546402931213379</v>
+      </c>
+      <c r="V3">
+        <v>-3.902496337890625</v>
+      </c>
+      <c r="W3">
+        <v>-7.495406627655029</v>
+      </c>
+      <c r="X3">
+        <v>-6.537461280822754</v>
+      </c>
+      <c r="Y3">
+        <v>-7.457181930541992</v>
+      </c>
+      <c r="Z3">
+        <v>-7.379081726074219</v>
+      </c>
+      <c r="AA3">
+        <v>-4.029664516448975</v>
+      </c>
+      <c r="AB3">
+        <v>-0.9516592025756836</v>
+      </c>
+      <c r="AC3">
+        <v>-3.871396064758301</v>
+      </c>
+      <c r="AD3">
+        <v>-2.716246128082275</v>
+      </c>
+      <c r="AE3">
+        <v>-7.14131498336792</v>
+      </c>
+      <c r="AF3">
+        <v>-5.713908672332764</v>
+      </c>
+      <c r="AG3">
+        <v>-4.095248699188232</v>
+      </c>
+      <c r="AH3">
+        <v>-2.762261152267456</v>
+      </c>
+      <c r="AI3">
+        <v>-4.33588981628418</v>
+      </c>
+      <c r="AJ3">
+        <v>-1.543279409408569</v>
+      </c>
+      <c r="AK3">
+        <v>-1.59640371799469</v>
+      </c>
+      <c r="AL3">
+        <v>-0.7757359147071838</v>
+      </c>
+      <c r="AM3">
+        <v>0.8178514838218689</v>
+      </c>
+      <c r="AN3">
+        <v>-1.411785244941711</v>
+      </c>
+      <c r="AO3">
+        <v>2.584350109100342</v>
+      </c>
+      <c r="AP3">
+        <v>1.171130657196045</v>
+      </c>
+      <c r="AQ3">
+        <v>-3.49628472328186</v>
+      </c>
+      <c r="AR3">
+        <v>2.022623777389526</v>
+      </c>
+      <c r="AS3">
+        <v>-0.3236646056175232</v>
+      </c>
+      <c r="AT3">
+        <v>-2.535546779632568</v>
+      </c>
+      <c r="AU3">
+        <v>2.84538722038269</v>
+      </c>
+      <c r="AV3">
+        <v>3.689497232437134</v>
+      </c>
+      <c r="AW3">
+        <v>5.087242603302002</v>
+      </c>
+      <c r="AX3">
+        <v>2.752894639968872</v>
+      </c>
+      <c r="AY3">
+        <v>-0.1672206819057465</v>
+      </c>
+      <c r="AZ3">
+        <v>2.935915231704712</v>
+      </c>
+      <c r="BA3">
+        <v>7.451609611511231</v>
+      </c>
+      <c r="BB3">
+        <v>5.362257480621338</v>
+      </c>
+      <c r="BC3">
+        <v>4.49075174331665</v>
+      </c>
+      <c r="BD3">
+        <v>6.917856693267822</v>
+      </c>
+      <c r="BE3">
+        <v>9.048090934753418</v>
+      </c>
+      <c r="BF3">
+        <v>12.47075271606445</v>
+      </c>
+      <c r="BG3">
+        <v>11.34399700164795</v>
+      </c>
+      <c r="BH3">
+        <v>12.62219619750977</v>
+      </c>
+      <c r="BI3">
+        <v>9.562223434448242</v>
+      </c>
+      <c r="BJ3">
+        <v>11.13823699951172</v>
+      </c>
+      <c r="BK3">
+        <v>11.39948177337647</v>
+      </c>
+      <c r="BL3">
+        <v>10.96865177154541</v>
+      </c>
+      <c r="BM3">
+        <v>8.092252731323242</v>
+      </c>
+      <c r="BN3">
+        <v>11.78683090209961</v>
+      </c>
+      <c r="BO3">
+        <v>12.64861488342285</v>
+      </c>
+      <c r="BP3">
+        <v>13.15540599822998</v>
+      </c>
+      <c r="BQ3">
+        <v>14.39941596984863</v>
+      </c>
+      <c r="BR3">
+        <v>14.71160984039307</v>
+      </c>
+      <c r="BS3">
+        <v>15.48149490356445</v>
+      </c>
+      <c r="BT3">
+        <v>15.52101516723633</v>
+      </c>
+      <c r="BU3">
+        <v>15.77454853057861</v>
+      </c>
+      <c r="BV3">
+        <v>14.27246379852295</v>
+      </c>
+      <c r="BW3">
+        <v>13.37583541870117</v>
+      </c>
+      <c r="BX3">
+        <v>15.86930179595947</v>
+      </c>
+      <c r="BY3">
+        <v>15.15759086608887</v>
+      </c>
+      <c r="BZ3">
+        <v>13.82029819488525</v>
+      </c>
+      <c r="CA3">
+        <v>13.34405326843262</v>
+      </c>
+      <c r="CB3">
+        <v>11.67094421386719</v>
+      </c>
+      <c r="CC3">
+        <v>12.15336418151856</v>
+      </c>
+      <c r="CD3">
+        <v>13.4456090927124</v>
+      </c>
+      <c r="CE3">
+        <v>12.73198223114014</v>
+      </c>
+      <c r="CF3">
+        <v>15.62023448944092</v>
+      </c>
+      <c r="CG3">
+        <v>14.68147087097168</v>
+      </c>
+      <c r="CH3">
+        <v>15.46786594390869</v>
+      </c>
+      <c r="CI3">
+        <v>11.70870113372803</v>
+      </c>
+      <c r="CJ3">
+        <v>9.568863868713379</v>
+      </c>
+      <c r="CK3">
+        <v>8.862987518310547</v>
+      </c>
+      <c r="CL3">
+        <v>11.60605239868164</v>
+      </c>
+      <c r="CM3">
+        <v>7.725457668304443</v>
+      </c>
+      <c r="CN3">
+        <v>12.51873683929443</v>
+      </c>
+      <c r="CO3">
+        <v>10.40316390991211</v>
+      </c>
+      <c r="CP3">
+        <v>11.86011695861816</v>
+      </c>
+      <c r="CQ3">
+        <v>9.306363105773926</v>
+      </c>
+      <c r="CR3">
+        <v>8.269416809082031</v>
+      </c>
+      <c r="CS3">
+        <v>2.019004583358765</v>
+      </c>
+      <c r="CT3">
+        <v>2.358729600906372</v>
+      </c>
+      <c r="CU3">
+        <v>1.199775695800781</v>
+      </c>
+      <c r="CV3">
+        <v>4.001336574554443</v>
+      </c>
+      <c r="CW3">
+        <v>1.904147505760193</v>
+      </c>
+      <c r="CX3">
+        <v>4.316563129425049</v>
+      </c>
+      <c r="CY3">
+        <v>3.58846116065979</v>
+      </c>
+      <c r="CZ3">
+        <v>2.120482444763184</v>
+      </c>
+      <c r="DA3">
+        <v>3.396521806716919</v>
+      </c>
+      <c r="DB3">
+        <v>3.525901794433594</v>
+      </c>
+      <c r="DC3">
+        <v>-4.314745426177979</v>
+      </c>
+      <c r="DD3">
+        <v>-2.192089319229126</v>
+      </c>
+      <c r="DE3">
+        <v>-4.035440444946289</v>
+      </c>
+      <c r="DF3">
+        <v>0.4362853169441223</v>
+      </c>
+      <c r="DG3">
+        <v>-2.118825912475586</v>
+      </c>
+      <c r="DH3">
+        <v>-5.444306373596191</v>
+      </c>
+      <c r="DI3">
+        <v>-4.608715057373047</v>
+      </c>
+      <c r="DJ3">
+        <v>-4.600847721099854</v>
+      </c>
+      <c r="DK3">
+        <v>-4.025824546813965</v>
+      </c>
+      <c r="DL3">
+        <v>-0.9177512526512146</v>
+      </c>
+      <c r="DM3">
+        <v>-11.77810764312744</v>
+      </c>
+      <c r="DN3">
+        <v>-5.86745023727417</v>
+      </c>
+      <c r="DO3">
+        <v>-8.225366592407227</v>
+      </c>
+      <c r="DP3">
+        <v>-8.135842323303223</v>
+      </c>
+      <c r="DQ3">
+        <v>-7.683810710906982</v>
+      </c>
+      <c r="DR3">
+        <v>-7.221243858337402</v>
+      </c>
+      <c r="DS3">
+        <v>-8.451642990112305</v>
+      </c>
+      <c r="DT3">
+        <v>-6.428974151611328</v>
+      </c>
+      <c r="DU3">
+        <v>-10.69387245178223</v>
+      </c>
+      <c r="DV3">
+        <v>-3.152456045150757</v>
+      </c>
+      <c r="DW3">
+        <v>-9.045572280883789</v>
+      </c>
+      <c r="DX3">
+        <v>-9.682982444763184</v>
+      </c>
+      <c r="DY3">
+        <v>-5.96462869644165</v>
+      </c>
+      <c r="DZ3">
+        <v>-9.399484634399414</v>
+      </c>
+      <c r="EA3">
+        <v>-7.998614311218262</v>
+      </c>
+      <c r="EB3">
+        <v>-11.52291679382324</v>
+      </c>
+      <c r="EC3">
+        <v>-8.964305877685547</v>
+      </c>
+      <c r="ED3">
+        <v>-9.301072120666504</v>
+      </c>
+      <c r="EE3">
+        <v>-5.644261837005615</v>
+      </c>
+      <c r="EF3">
+        <v>-10.72205448150635</v>
+      </c>
+      <c r="EG3">
+        <v>-5.003952026367188</v>
+      </c>
+      <c r="EH3">
+        <v>-8.806482315063477</v>
+      </c>
+      <c r="EI3">
+        <v>-5.892090797424316</v>
+      </c>
+      <c r="EJ3">
+        <v>-9.047993659973145</v>
+      </c>
+      <c r="EK3">
+        <v>-8.546402931213379</v>
+      </c>
+      <c r="EL3">
+        <v>-3.902496337890625</v>
+      </c>
+      <c r="EM3">
+        <v>-7.495406627655029</v>
+      </c>
+      <c r="EN3">
+        <v>-6.537461280822754</v>
+      </c>
+      <c r="EO3">
+        <v>-7.457181930541992</v>
+      </c>
+      <c r="EP3">
+        <v>-7.379081726074219</v>
+      </c>
+      <c r="EQ3">
+        <v>-4.029664516448975</v>
+      </c>
+      <c r="ER3">
+        <v>-0.9516592025756836</v>
+      </c>
+      <c r="ES3">
+        <v>-3.871396064758301</v>
+      </c>
+      <c r="ET3">
+        <v>-2.716246128082275</v>
+      </c>
+      <c r="EU3">
+        <v>-7.14131498336792</v>
+      </c>
+      <c r="EV3">
+        <v>-5.713908672332764</v>
+      </c>
+      <c r="EW3">
+        <v>-4.095248699188232</v>
+      </c>
+      <c r="EX3">
+        <v>-2.762261152267456</v>
+      </c>
+      <c r="EY3">
+        <v>-4.33588981628418</v>
+      </c>
+      <c r="EZ3">
+        <v>-1.543279409408569</v>
+      </c>
+      <c r="FA3">
+        <v>-1.59640371799469</v>
+      </c>
+      <c r="FB3">
+        <v>-0.7757359147071838</v>
+      </c>
+      <c r="FC3">
+        <v>0.8178514838218689</v>
+      </c>
+      <c r="FD3">
+        <v>-1.411785244941711</v>
+      </c>
+      <c r="FE3">
+        <v>2.584350109100342</v>
+      </c>
+      <c r="FF3">
+        <v>1.171130657196045</v>
+      </c>
+      <c r="FG3">
+        <v>-3.49628472328186</v>
+      </c>
+      <c r="FH3">
+        <v>2.022623777389526</v>
+      </c>
+      <c r="FI3">
+        <v>-0.3236646056175232</v>
+      </c>
+      <c r="FJ3">
+        <v>-2.535546779632568</v>
+      </c>
+      <c r="FK3">
+        <v>2.84538722038269</v>
+      </c>
+      <c r="FL3">
+        <v>3.689497232437134</v>
+      </c>
+      <c r="FM3">
+        <v>5.087242603302002</v>
+      </c>
+      <c r="FN3">
+        <v>2.752894639968872</v>
+      </c>
+      <c r="FO3">
+        <v>-0.1672206819057465</v>
+      </c>
+      <c r="FP3">
+        <v>2.935915231704712</v>
+      </c>
+      <c r="FQ3">
+        <v>7.451609611511231</v>
+      </c>
+      <c r="FR3">
+        <v>5.362257480621338</v>
+      </c>
+      <c r="FS3">
+        <v>4.49075174331665</v>
+      </c>
+      <c r="FT3">
+        <v>6.917856693267822</v>
+      </c>
+      <c r="FU3">
+        <v>9.048090934753418</v>
+      </c>
+      <c r="FV3">
+        <v>12.47075271606445</v>
+      </c>
+      <c r="FW3">
+        <v>11.34399700164795</v>
+      </c>
+      <c r="FX3">
+        <v>12.62219619750977</v>
+      </c>
+      <c r="FY3">
+        <v>9.562223434448242</v>
+      </c>
+      <c r="FZ3">
+        <v>11.13823699951172</v>
+      </c>
+      <c r="GA3">
+        <v>11.39948177337647</v>
+      </c>
+      <c r="GB3">
+        <v>10.96865177154541</v>
+      </c>
+      <c r="GC3">
+        <v>8.092252731323242</v>
+      </c>
+      <c r="GD3">
+        <v>11.78683090209961</v>
+      </c>
+      <c r="GE3">
+        <v>12.64861488342285</v>
+      </c>
+      <c r="GF3">
+        <v>13.15540599822998</v>
+      </c>
+      <c r="GG3">
+        <v>14.39941596984863</v>
+      </c>
+      <c r="GH3">
+        <v>14.71160984039307</v>
+      </c>
+      <c r="GI3">
+        <v>15.48149490356445</v>
+      </c>
+      <c r="GJ3">
+        <v>15.52101516723633</v>
+      </c>
+      <c r="GK3">
+        <v>15.77454853057861</v>
+      </c>
+      <c r="GL3">
+        <v>14.27246379852295</v>
+      </c>
+      <c r="GM3">
+        <v>13.37583541870117</v>
+      </c>
+      <c r="GN3">
+        <v>15.86930179595947</v>
+      </c>
+      <c r="GO3">
+        <v>15.15759086608887</v>
+      </c>
+      <c r="GP3">
+        <v>13.82029819488525</v>
+      </c>
+      <c r="GQ3">
+        <v>13.34405326843262</v>
+      </c>
+      <c r="GR3">
+        <v>11.67094421386719</v>
+      </c>
+      <c r="GS3">
+        <v>12.15336418151856</v>
+      </c>
+      <c r="GT3">
+        <v>13.4456090927124</v>
+      </c>
+      <c r="GU3">
+        <v>12.73198223114014</v>
+      </c>
+      <c r="GV3">
+        <v>15.62023448944092</v>
+      </c>
+      <c r="GW3">
+        <v>14.68147087097168</v>
+      </c>
+      <c r="GX3">
+        <v>15.46786594390869</v>
+      </c>
+      <c r="GY3">
+        <v>11.70870113372803</v>
+      </c>
+      <c r="GZ3">
+        <v>9.568863868713379</v>
+      </c>
+      <c r="HA3">
+        <v>8.862987518310547</v>
+      </c>
+      <c r="HB3">
+        <v>11.60605239868164</v>
+      </c>
+      <c r="HC3">
+        <v>7.725457668304443</v>
+      </c>
+      <c r="HD3">
+        <v>12.51873683929443</v>
+      </c>
+      <c r="HE3">
+        <v>10.40316390991211</v>
+      </c>
+      <c r="HF3">
+        <v>11.86011695861816</v>
+      </c>
+      <c r="HG3">
+        <v>9.306363105773926</v>
+      </c>
+      <c r="HH3">
+        <v>8.269416809082031</v>
+      </c>
+      <c r="HI3">
+        <v>2.019004583358765</v>
+      </c>
+      <c r="HJ3">
+        <v>2.358729600906372</v>
+      </c>
+      <c r="HK3">
+        <v>1.199775695800781</v>
+      </c>
+      <c r="HL3">
+        <v>4.001336574554443</v>
+      </c>
+      <c r="HM3">
+        <v>1.904147505760193</v>
+      </c>
+      <c r="HN3">
+        <v>4.316563129425049</v>
+      </c>
+      <c r="HO3">
+        <v>3.58846116065979</v>
+      </c>
+      <c r="HP3">
+        <v>2.120482444763184</v>
+      </c>
+      <c r="HQ3">
+        <v>3.396521806716919</v>
+      </c>
+      <c r="HR3">
+        <v>3.525901794433594</v>
+      </c>
+      <c r="HS3">
+        <v>-4.314745426177979</v>
+      </c>
+      <c r="HT3">
+        <v>-2.192089319229126</v>
+      </c>
+      <c r="HU3">
+        <v>-4.035440444946289</v>
+      </c>
+      <c r="HV3">
+        <v>0.4362853169441223</v>
+      </c>
+      <c r="HW3">
+        <v>-2.118825912475586</v>
+      </c>
+      <c r="HX3">
+        <v>-5.444306373596191</v>
+      </c>
+      <c r="HY3">
+        <v>-4.608715057373047</v>
+      </c>
+      <c r="HZ3">
+        <v>-4.600847721099854</v>
+      </c>
+      <c r="IA3">
+        <v>-4.025824546813965</v>
+      </c>
+      <c r="IB3">
+        <v>-0.9177512526512146</v>
+      </c>
+      <c r="IC3">
+        <v>-11.77810764312744</v>
+      </c>
+      <c r="ID3">
+        <v>-5.86745023727417</v>
+      </c>
+      <c r="IE3">
+        <v>-8.225366592407227</v>
+      </c>
+      <c r="IF3">
+        <v>-8.135842323303223</v>
+      </c>
+      <c r="IG3">
+        <v>-7.683810710906982</v>
+      </c>
+      <c r="IH3">
+        <v>-7.221243858337402</v>
+      </c>
+      <c r="II3">
+        <v>-8.451642990112305</v>
+      </c>
+      <c r="IJ3">
+        <v>-6.428974151611328</v>
+      </c>
+      <c r="IK3">
+        <v>-10.69387245178223</v>
+      </c>
+      <c r="IL3">
+        <v>-3.152456045150757</v>
+      </c>
+      <c r="IM3">
+        <v>-9.045572280883789</v>
+      </c>
+      <c r="IN3">
+        <v>-9.682982444763184</v>
+      </c>
+      <c r="IO3">
+        <v>-5.96462869644165</v>
+      </c>
+      <c r="IP3">
+        <v>-9.399484634399414</v>
+      </c>
+      <c r="IQ3">
+        <v>-7.998614311218262</v>
+      </c>
+      <c r="IR3">
+        <v>-11.52291679382324</v>
+      </c>
+      <c r="IS3">
+        <v>-8.964305877685547</v>
+      </c>
+      <c r="IT3">
+        <v>-9.301072120666504</v>
+      </c>
+      <c r="IU3">
+        <v>-5.644261837005615</v>
+      </c>
+      <c r="IV3">
+        <v>-10.72205448150635</v>
+      </c>
+      <c r="IW3">
+        <v>-5.003952026367188</v>
+      </c>
+      <c r="IX3">
+        <v>-8.806482315063477</v>
+      </c>
+      <c r="IY3">
+        <v>-5.892090797424316</v>
+      </c>
+      <c r="IZ3">
+        <v>-9.047993659973145</v>
+      </c>
+      <c r="JA3">
+        <v>-8.546402931213379</v>
+      </c>
+      <c r="JB3">
+        <v>-3.902496337890625</v>
+      </c>
+      <c r="JC3">
+        <v>-7.495406627655029</v>
+      </c>
+      <c r="JD3">
+        <v>-6.537461280822754</v>
+      </c>
+      <c r="JE3">
+        <v>-7.457181930541992</v>
+      </c>
+      <c r="JF3">
+        <v>-7.379081726074219</v>
+      </c>
+      <c r="JG3">
+        <v>-4.029664516448975</v>
+      </c>
+      <c r="JH3">
+        <v>-0.9516592025756836</v>
+      </c>
+      <c r="JI3">
+        <v>-3.871396064758301</v>
+      </c>
+      <c r="JJ3">
+        <v>-2.716246128082275</v>
+      </c>
+      <c r="JK3">
+        <v>-7.14131498336792</v>
+      </c>
+      <c r="JL3">
+        <v>-5.713908672332764</v>
+      </c>
+      <c r="JM3">
+        <v>-4.095248699188232</v>
+      </c>
+      <c r="JN3">
+        <v>-2.762261152267456</v>
+      </c>
+      <c r="JO3">
+        <v>-4.33588981628418</v>
+      </c>
+      <c r="JP3">
+        <v>-1.543279409408569</v>
+      </c>
+      <c r="JQ3">
+        <v>-1.59640371799469</v>
+      </c>
+      <c r="JR3">
+        <v>-0.7757359147071838</v>
+      </c>
+      <c r="JS3">
+        <v>0.8178514838218689</v>
+      </c>
+      <c r="JT3">
+        <v>-1.411785244941711</v>
+      </c>
+      <c r="JU3">
+        <v>2.584350109100342</v>
+      </c>
+      <c r="JV3">
+        <v>1.171130657196045</v>
+      </c>
+      <c r="JW3">
+        <v>-3.49628472328186</v>
+      </c>
+      <c r="JX3">
+        <v>2.022623777389526</v>
+      </c>
+      <c r="JY3">
+        <v>-0.3236646056175232</v>
+      </c>
+      <c r="JZ3">
+        <v>-2.535546779632568</v>
+      </c>
+      <c r="KA3">
+        <v>2.84538722038269</v>
+      </c>
+      <c r="KB3">
+        <v>3.689497232437134</v>
+      </c>
+      <c r="KC3">
+        <v>5.087242603302002</v>
+      </c>
+      <c r="KD3">
+        <v>2.752894639968872</v>
+      </c>
+      <c r="KE3">
+        <v>-0.1672206819057465</v>
+      </c>
+      <c r="KF3">
+        <v>2.935915231704712</v>
+      </c>
+      <c r="KG3">
+        <v>7.451609611511231</v>
+      </c>
+      <c r="KH3">
+        <v>5.362257480621338</v>
+      </c>
+      <c r="KI3">
+        <v>4.49075174331665</v>
+      </c>
+      <c r="KJ3">
+        <v>6.917856693267822</v>
+      </c>
+      <c r="KK3">
+        <v>9.048090934753418</v>
+      </c>
+      <c r="KL3">
+        <v>12.47075271606445</v>
+      </c>
+      <c r="KM3">
+        <v>11.34399700164795</v>
+      </c>
+      <c r="KN3">
+        <v>12.62219619750977</v>
+      </c>
+      <c r="KO3">
+        <v>9.562223434448242</v>
+      </c>
+      <c r="KP3">
+        <v>11.13823699951172</v>
+      </c>
+      <c r="KQ3">
+        <v>11.39948177337647</v>
+      </c>
+      <c r="KR3">
+        <v>10.96865177154541</v>
+      </c>
+      <c r="KS3">
+        <v>8.092252731323242</v>
+      </c>
+      <c r="KT3">
+        <v>11.78683090209961</v>
+      </c>
+      <c r="KU3">
+        <v>12.64861488342285</v>
+      </c>
+      <c r="KV3">
+        <v>13.15540599822998</v>
+      </c>
+      <c r="KW3">
+        <v>14.39941596984863</v>
+      </c>
+      <c r="KX3">
+        <v>14.71160984039307</v>
+      </c>
+      <c r="KY3">
+        <v>15.48149490356445</v>
+      </c>
+      <c r="KZ3">
+        <v>15.52101516723633</v>
+      </c>
+      <c r="LA3">
+        <v>15.77454853057861</v>
+      </c>
+      <c r="LB3">
+        <v>14.27246379852295</v>
+      </c>
+      <c r="LC3">
+        <v>13.37583541870117</v>
+      </c>
+      <c r="LD3">
+        <v>15.86930179595947</v>
+      </c>
+      <c r="LE3">
+        <v>15.15759086608887</v>
+      </c>
+      <c r="LF3">
+        <v>13.82029819488525</v>
+      </c>
+      <c r="LG3">
+        <v>13.34405326843262</v>
+      </c>
+      <c r="LH3">
+        <v>11.67094421386719</v>
+      </c>
+      <c r="LI3">
+        <v>12.15336418151856</v>
+      </c>
+      <c r="LJ3">
+        <v>13.4456090927124</v>
+      </c>
+      <c r="LK3">
+        <v>12.73198223114014</v>
+      </c>
+      <c r="LL3">
+        <v>15.62023448944092</v>
+      </c>
+      <c r="LM3">
+        <v>14.68147087097168</v>
+      </c>
+      <c r="LN3">
+        <v>15.46786594390869</v>
+      </c>
+      <c r="LO3">
+        <v>11.70870113372803</v>
+      </c>
+      <c r="LP3">
+        <v>9.568863868713379</v>
+      </c>
+      <c r="LQ3">
+        <v>8.862987518310547</v>
+      </c>
+      <c r="LR3">
+        <v>11.60605239868164</v>
+      </c>
+      <c r="LS3">
+        <v>7.725457668304443</v>
+      </c>
+      <c r="LT3">
+        <v>12.51873683929443</v>
+      </c>
+      <c r="LU3">
+        <v>10.40316390991211</v>
+      </c>
+      <c r="LV3">
+        <v>11.86011695861816</v>
+      </c>
+      <c r="LW3">
+        <v>9.306363105773926</v>
+      </c>
+      <c r="LX3">
+        <v>8.269416809082031</v>
+      </c>
+      <c r="LY3">
+        <v>2.019004583358765</v>
+      </c>
+      <c r="LZ3">
+        <v>2.358729600906372</v>
+      </c>
+      <c r="MA3">
+        <v>1.199775695800781</v>
+      </c>
+      <c r="MB3">
+        <v>4.001336574554443</v>
+      </c>
+      <c r="MC3">
+        <v>1.904147505760193</v>
+      </c>
+      <c r="MD3">
+        <v>4.316563129425049</v>
+      </c>
+      <c r="ME3">
+        <v>3.58846116065979</v>
+      </c>
+      <c r="MF3">
+        <v>2.120482444763184</v>
+      </c>
+      <c r="MG3">
+        <v>3.396521806716919</v>
+      </c>
+      <c r="MH3">
+        <v>3.525901794433594</v>
+      </c>
+      <c r="MI3">
+        <v>-4.314745426177979</v>
+      </c>
+      <c r="MJ3">
+        <v>-2.192089319229126</v>
+      </c>
+      <c r="MK3">
+        <v>-4.035440444946289</v>
+      </c>
+      <c r="ML3">
+        <v>0.4362853169441223</v>
+      </c>
+      <c r="MM3">
+        <v>-2.118825912475586</v>
+      </c>
+      <c r="MN3">
+        <v>-5.444306373596191</v>
+      </c>
+      <c r="MO3">
+        <v>-4.608715057373047</v>
+      </c>
+      <c r="MP3">
+        <v>-4.600847721099854</v>
+      </c>
+      <c r="MQ3">
+        <v>-4.025824546813965</v>
+      </c>
+      <c r="MR3">
+        <v>-0.9177512526512146</v>
+      </c>
+      <c r="MS3">
+        <v>-11.77810764312744</v>
+      </c>
+      <c r="MT3">
+        <v>-5.86745023727417</v>
+      </c>
+      <c r="MU3">
+        <v>-8.225366592407227</v>
+      </c>
+      <c r="MV3">
+        <v>-8.135842323303223</v>
+      </c>
+      <c r="MW3">
+        <v>-7.683810710906982</v>
+      </c>
+      <c r="MX3">
+        <v>-7.221243858337402</v>
+      </c>
+      <c r="MY3">
+        <v>-8.451642990112305</v>
+      </c>
+      <c r="MZ3">
+        <v>-6.428974151611328</v>
+      </c>
+      <c r="NA3">
+        <v>-10.69387245178223</v>
+      </c>
+      <c r="NB3">
+        <v>-3.152456045150757</v>
       </c>
     </row>
     <row r="4">
@@ -900,7 +4849,1084 @@
         </is>
       </c>
       <c r="G21">
-        <v>1.451369404792786</v>
+        <v>-9.826066017150879</v>
+      </c>
+      <c r="H21">
+        <v>-10.42977333068848</v>
+      </c>
+      <c r="I21">
+        <v>-6.662478923797607</v>
+      </c>
+      <c r="J21">
+        <v>-10.17042446136475</v>
+      </c>
+      <c r="K21">
+        <v>-8.718927383422852</v>
+      </c>
+      <c r="L21">
+        <v>-12.4332914352417</v>
+      </c>
+      <c r="M21">
+        <v>-9.691110610961914</v>
+      </c>
+      <c r="N21">
+        <v>-10.0819263458252</v>
+      </c>
+      <c r="O21">
+        <v>-6.333967208862305</v>
+      </c>
+      <c r="P21">
+        <v>-11.47782135009766</v>
+      </c>
+      <c r="Q21">
+        <v>-5.668158054351807</v>
+      </c>
+      <c r="R21">
+        <v>-9.533348083496094</v>
+      </c>
+      <c r="S21">
+        <v>-6.576618671417236</v>
+      </c>
+      <c r="T21">
+        <v>-9.844670295715332</v>
+      </c>
+      <c r="U21">
+        <v>-9.316801071166992</v>
+      </c>
+      <c r="V21">
+        <v>-4.496777057647705</v>
+      </c>
+      <c r="W21">
+        <v>-8.182600975036621</v>
+      </c>
+      <c r="X21">
+        <v>-7.186551094055176</v>
+      </c>
+      <c r="Y21">
+        <v>-8.152044296264648</v>
+      </c>
+      <c r="Z21">
+        <v>-8.072465896606445</v>
+      </c>
+      <c r="AA21">
+        <v>-4.698604583740234</v>
+      </c>
+      <c r="AB21">
+        <v>-1.530136942863464</v>
+      </c>
+      <c r="AC21">
+        <v>-4.532896518707275</v>
+      </c>
+      <c r="AD21">
+        <v>-3.363401651382446</v>
+      </c>
+      <c r="AE21">
+        <v>-7.854813575744629</v>
+      </c>
+      <c r="AF21">
+        <v>-6.343339443206787</v>
+      </c>
+      <c r="AG21">
+        <v>-4.712197303771973</v>
+      </c>
+      <c r="AH21">
+        <v>-3.428284168243408</v>
+      </c>
+      <c r="AI21">
+        <v>-4.926649570465088</v>
+      </c>
+      <c r="AJ21">
+        <v>-2.216353178024292</v>
+      </c>
+      <c r="AK21">
+        <v>-2.140716075897217</v>
+      </c>
+      <c r="AL21">
+        <v>-1.424305200576782</v>
+      </c>
+      <c r="AM21">
+        <v>0.05881138890981674</v>
+      </c>
+      <c r="AN21">
+        <v>-2.04677677154541</v>
+      </c>
+      <c r="AO21">
+        <v>1.929474592208862</v>
+      </c>
+      <c r="AP21">
+        <v>0.5295731425285339</v>
+      </c>
+      <c r="AQ21">
+        <v>-4.202113151550293</v>
+      </c>
+      <c r="AR21">
+        <v>1.395708560943604</v>
+      </c>
+      <c r="AS21">
+        <v>-0.8470553755760193</v>
+      </c>
+      <c r="AT21">
+        <v>-3.15268874168396</v>
+      </c>
+      <c r="AU21">
+        <v>2.11176609992981</v>
+      </c>
+      <c r="AV21">
+        <v>3.007015705108643</v>
+      </c>
+      <c r="AW21">
+        <v>4.503003597259522</v>
+      </c>
+      <c r="AX21">
+        <v>2.140675067901611</v>
+      </c>
+      <c r="AY21">
+        <v>-0.7031306028366089</v>
+      </c>
+      <c r="AZ21">
+        <v>2.262981176376343</v>
+      </c>
+      <c r="BA21">
+        <v>6.841522216796875</v>
+      </c>
+      <c r="BB21">
+        <v>4.647334098815918</v>
+      </c>
+      <c r="BC21">
+        <v>3.841114282608032</v>
+      </c>
+      <c r="BD21">
+        <v>6.265204429626465</v>
+      </c>
+      <c r="BE21">
+        <v>8.446438789367676</v>
+      </c>
+      <c r="BF21">
+        <v>11.8476448059082</v>
+      </c>
+      <c r="BG21">
+        <v>10.70631217956543</v>
+      </c>
+      <c r="BH21">
+        <v>11.90477085113525</v>
+      </c>
+      <c r="BI21">
+        <v>8.943603515625</v>
+      </c>
+      <c r="BJ21">
+        <v>10.43499565124512</v>
+      </c>
+      <c r="BK21">
+        <v>10.74190521240234</v>
+      </c>
+      <c r="BL21">
+        <v>10.43186092376709</v>
+      </c>
+      <c r="BM21">
+        <v>7.451411247253418</v>
+      </c>
+      <c r="BN21">
+        <v>11.04467010498047</v>
+      </c>
+      <c r="BO21">
+        <v>11.99551105499268</v>
+      </c>
+      <c r="BP21">
+        <v>12.50710964202881</v>
+      </c>
+      <c r="BQ21">
+        <v>13.8206844329834</v>
+      </c>
+      <c r="BR21">
+        <v>14.04697418212891</v>
+      </c>
+      <c r="BS21">
+        <v>14.83084297180176</v>
+      </c>
+      <c r="BT21">
+        <v>14.86277484893799</v>
+      </c>
+      <c r="BU21">
+        <v>15.07499885559082</v>
+      </c>
+      <c r="BV21">
+        <v>13.59790420532227</v>
+      </c>
+      <c r="BW21">
+        <v>12.77341365814209</v>
+      </c>
+      <c r="BX21">
+        <v>15.39455699920654</v>
+      </c>
+      <c r="BY21">
+        <v>14.55287456512451</v>
+      </c>
+      <c r="BZ21">
+        <v>13.17198848724365</v>
+      </c>
+      <c r="CA21">
+        <v>12.71596240997315</v>
+      </c>
+      <c r="CB21">
+        <v>10.8973445892334</v>
+      </c>
+      <c r="CC21">
+        <v>11.50870037078857</v>
+      </c>
+      <c r="CD21">
+        <v>12.80831909179688</v>
+      </c>
+      <c r="CE21">
+        <v>12.0907678604126</v>
+      </c>
+      <c r="CF21">
+        <v>14.9866943359375</v>
+      </c>
+      <c r="CG21">
+        <v>14.08559036254883</v>
+      </c>
+      <c r="CH21">
+        <v>14.78601455688477</v>
+      </c>
+      <c r="CI21">
+        <v>11.06094837188721</v>
+      </c>
+      <c r="CJ21">
+        <v>8.938794136047363</v>
+      </c>
+      <c r="CK21">
+        <v>8.191794395446777</v>
+      </c>
+      <c r="CL21">
+        <v>10.92972850799561</v>
+      </c>
+      <c r="CM21">
+        <v>7.07395076751709</v>
+      </c>
+      <c r="CN21">
+        <v>11.83681774139404</v>
+      </c>
+      <c r="CO21">
+        <v>9.725031852722168</v>
+      </c>
+      <c r="CP21">
+        <v>11.24203968048096</v>
+      </c>
+      <c r="CQ21">
+        <v>8.604989051818848</v>
+      </c>
+      <c r="CR21">
+        <v>7.526283264160156</v>
+      </c>
+      <c r="CS21">
+        <v>1.331504225730896</v>
+      </c>
+      <c r="CT21">
+        <v>1.693411111831665</v>
+      </c>
+      <c r="CU21">
+        <v>0.5571392178535461</v>
+      </c>
+      <c r="CV21">
+        <v>3.335044860839844</v>
+      </c>
+      <c r="CW21">
+        <v>1.210312247276306</v>
+      </c>
+      <c r="CX21">
+        <v>3.604955911636353</v>
+      </c>
+      <c r="CY21">
+        <v>2.938384532928467</v>
+      </c>
+      <c r="CZ21">
+        <v>1.452790498733521</v>
+      </c>
+      <c r="DA21">
+        <v>2.677157163619995</v>
+      </c>
+      <c r="DB21">
+        <v>2.799628734588623</v>
+      </c>
+      <c r="DC21">
+        <v>-4.974131107330322</v>
+      </c>
+      <c r="DD21">
+        <v>-2.856075525283814</v>
+      </c>
+      <c r="DE21">
+        <v>-4.664633274078369</v>
+      </c>
+      <c r="DF21">
+        <v>-0.1882722675800324</v>
+      </c>
+      <c r="DG21">
+        <v>-2.760053634643555</v>
+      </c>
+      <c r="DH21">
+        <v>-6.232524871826172</v>
+      </c>
+      <c r="DI21">
+        <v>-5.368353366851807</v>
+      </c>
+      <c r="DJ21">
+        <v>-5.328042507171631</v>
+      </c>
+      <c r="DK21">
+        <v>-4.715677261352539</v>
+      </c>
+      <c r="DL21">
+        <v>-1.551629781723023</v>
+      </c>
+      <c r="DM21">
+        <v>-12.55132484436035</v>
+      </c>
+      <c r="DN21">
+        <v>-6.555341720581055</v>
+      </c>
+      <c r="DO21">
+        <v>-8.971014022827148</v>
+      </c>
+      <c r="DP21">
+        <v>-8.876720428466797</v>
+      </c>
+      <c r="DQ21">
+        <v>-8.368064880371094</v>
+      </c>
+      <c r="DR21">
+        <v>-7.917553901672363</v>
+      </c>
+      <c r="DS21">
+        <v>-9.165247917175293</v>
+      </c>
+      <c r="DT21">
+        <v>-7.135007381439209</v>
+      </c>
+      <c r="DU21">
+        <v>-11.63981342315674</v>
+      </c>
+      <c r="DV21">
+        <v>-3.764436960220337</v>
+      </c>
+      <c r="DW21">
+        <v>-9.826066017150879</v>
+      </c>
+      <c r="DX21">
+        <v>-10.42977333068848</v>
+      </c>
+      <c r="DY21">
+        <v>-6.662478923797607</v>
+      </c>
+      <c r="DZ21">
+        <v>-10.17042446136475</v>
+      </c>
+      <c r="EA21">
+        <v>-8.718927383422852</v>
+      </c>
+      <c r="EB21">
+        <v>-12.4332914352417</v>
+      </c>
+      <c r="EC21">
+        <v>-9.691110610961914</v>
+      </c>
+      <c r="ED21">
+        <v>-10.0819263458252</v>
+      </c>
+      <c r="EE21">
+        <v>-6.333967208862305</v>
+      </c>
+      <c r="EF21">
+        <v>-11.47782135009766</v>
+      </c>
+      <c r="EG21">
+        <v>-5.668158054351807</v>
+      </c>
+      <c r="EH21">
+        <v>-9.533348083496094</v>
+      </c>
+      <c r="EI21">
+        <v>-6.576618671417236</v>
+      </c>
+      <c r="EJ21">
+        <v>-9.844670295715332</v>
+      </c>
+      <c r="EK21">
+        <v>-9.316801071166992</v>
+      </c>
+      <c r="EL21">
+        <v>-4.496777057647705</v>
+      </c>
+      <c r="EM21">
+        <v>-8.182600975036621</v>
+      </c>
+      <c r="EN21">
+        <v>-7.186551094055176</v>
+      </c>
+      <c r="EO21">
+        <v>-8.152044296264648</v>
+      </c>
+      <c r="EP21">
+        <v>-8.072465896606445</v>
+      </c>
+      <c r="EQ21">
+        <v>-4.698604583740234</v>
+      </c>
+      <c r="ER21">
+        <v>-1.530136942863464</v>
+      </c>
+      <c r="ES21">
+        <v>-4.532896518707275</v>
+      </c>
+      <c r="ET21">
+        <v>-3.363401651382446</v>
+      </c>
+      <c r="EU21">
+        <v>-7.854813575744629</v>
+      </c>
+      <c r="EV21">
+        <v>-6.343339443206787</v>
+      </c>
+      <c r="EW21">
+        <v>-4.712197303771973</v>
+      </c>
+      <c r="EX21">
+        <v>-3.428284168243408</v>
+      </c>
+      <c r="EY21">
+        <v>-4.926649570465088</v>
+      </c>
+      <c r="EZ21">
+        <v>-2.216353178024292</v>
+      </c>
+      <c r="FA21">
+        <v>-2.140716075897217</v>
+      </c>
+      <c r="FB21">
+        <v>-1.424305200576782</v>
+      </c>
+      <c r="FC21">
+        <v>0.05881138890981674</v>
+      </c>
+      <c r="FD21">
+        <v>-2.04677677154541</v>
+      </c>
+      <c r="FE21">
+        <v>1.929474592208862</v>
+      </c>
+      <c r="FF21">
+        <v>0.5295731425285339</v>
+      </c>
+      <c r="FG21">
+        <v>-4.202113151550293</v>
+      </c>
+      <c r="FH21">
+        <v>1.395708560943604</v>
+      </c>
+      <c r="FI21">
+        <v>-0.8470553755760193</v>
+      </c>
+      <c r="FJ21">
+        <v>-3.15268874168396</v>
+      </c>
+      <c r="FK21">
+        <v>2.11176609992981</v>
+      </c>
+      <c r="FL21">
+        <v>3.007015705108643</v>
+      </c>
+      <c r="FM21">
+        <v>4.503003597259522</v>
+      </c>
+      <c r="FN21">
+        <v>2.140675067901611</v>
+      </c>
+      <c r="FO21">
+        <v>-0.7031306028366089</v>
+      </c>
+      <c r="FP21">
+        <v>2.262981176376343</v>
+      </c>
+      <c r="FQ21">
+        <v>6.841522216796875</v>
+      </c>
+      <c r="FR21">
+        <v>4.647334098815918</v>
+      </c>
+      <c r="FS21">
+        <v>3.841114282608032</v>
+      </c>
+      <c r="FT21">
+        <v>6.265204429626465</v>
+      </c>
+      <c r="FU21">
+        <v>8.446438789367676</v>
+      </c>
+      <c r="FV21">
+        <v>11.8476448059082</v>
+      </c>
+      <c r="FW21">
+        <v>10.70631217956543</v>
+      </c>
+      <c r="FX21">
+        <v>11.90477085113525</v>
+      </c>
+      <c r="FY21">
+        <v>8.943603515625</v>
+      </c>
+      <c r="FZ21">
+        <v>10.43499565124512</v>
+      </c>
+      <c r="GA21">
+        <v>10.74190521240234</v>
+      </c>
+      <c r="GB21">
+        <v>10.43186092376709</v>
+      </c>
+      <c r="GC21">
+        <v>7.451411247253418</v>
+      </c>
+      <c r="GD21">
+        <v>11.04467010498047</v>
+      </c>
+      <c r="GE21">
+        <v>11.99551105499268</v>
+      </c>
+      <c r="GF21">
+        <v>12.50710964202881</v>
+      </c>
+      <c r="GG21">
+        <v>13.8206844329834</v>
+      </c>
+      <c r="GH21">
+        <v>14.04697418212891</v>
+      </c>
+      <c r="GI21">
+        <v>14.83084297180176</v>
+      </c>
+      <c r="GJ21">
+        <v>14.86277484893799</v>
+      </c>
+      <c r="GK21">
+        <v>15.07499885559082</v>
+      </c>
+      <c r="GL21">
+        <v>13.59790420532227</v>
+      </c>
+      <c r="GM21">
+        <v>12.77341365814209</v>
+      </c>
+      <c r="GN21">
+        <v>15.39455699920654</v>
+      </c>
+      <c r="GO21">
+        <v>14.55287456512451</v>
+      </c>
+      <c r="GP21">
+        <v>13.17198848724365</v>
+      </c>
+      <c r="GQ21">
+        <v>12.71596240997315</v>
+      </c>
+      <c r="GR21">
+        <v>10.8973445892334</v>
+      </c>
+      <c r="GS21">
+        <v>11.50870037078857</v>
+      </c>
+      <c r="GT21">
+        <v>12.80831909179688</v>
+      </c>
+      <c r="GU21">
+        <v>12.0907678604126</v>
+      </c>
+      <c r="GV21">
+        <v>14.9866943359375</v>
+      </c>
+      <c r="GW21">
+        <v>14.08559036254883</v>
+      </c>
+      <c r="GX21">
+        <v>14.78601455688477</v>
+      </c>
+      <c r="GY21">
+        <v>11.06094837188721</v>
+      </c>
+      <c r="GZ21">
+        <v>8.938794136047363</v>
+      </c>
+      <c r="HA21">
+        <v>8.191794395446777</v>
+      </c>
+      <c r="HB21">
+        <v>10.92972850799561</v>
+      </c>
+      <c r="HC21">
+        <v>7.07395076751709</v>
+      </c>
+      <c r="HD21">
+        <v>11.83681774139404</v>
+      </c>
+      <c r="HE21">
+        <v>9.725031852722168</v>
+      </c>
+      <c r="HF21">
+        <v>11.24203968048096</v>
+      </c>
+      <c r="HG21">
+        <v>8.604989051818848</v>
+      </c>
+      <c r="HH21">
+        <v>7.526283264160156</v>
+      </c>
+      <c r="HI21">
+        <v>1.331504225730896</v>
+      </c>
+      <c r="HJ21">
+        <v>1.693411111831665</v>
+      </c>
+      <c r="HK21">
+        <v>0.5571392178535461</v>
+      </c>
+      <c r="HL21">
+        <v>3.335044860839844</v>
+      </c>
+      <c r="HM21">
+        <v>1.210312247276306</v>
+      </c>
+      <c r="HN21">
+        <v>3.604955911636353</v>
+      </c>
+      <c r="HO21">
+        <v>2.938384532928467</v>
+      </c>
+      <c r="HP21">
+        <v>1.452790498733521</v>
+      </c>
+      <c r="HQ21">
+        <v>2.677157163619995</v>
+      </c>
+      <c r="HR21">
+        <v>2.799628734588623</v>
+      </c>
+      <c r="HS21">
+        <v>-4.974131107330322</v>
+      </c>
+      <c r="HT21">
+        <v>-2.856075525283814</v>
+      </c>
+      <c r="HU21">
+        <v>-4.664633274078369</v>
+      </c>
+      <c r="HV21">
+        <v>-0.1882722675800324</v>
+      </c>
+      <c r="HW21">
+        <v>-2.760053634643555</v>
+      </c>
+      <c r="HX21">
+        <v>-6.232524871826172</v>
+      </c>
+      <c r="HY21">
+        <v>-5.368353366851807</v>
+      </c>
+      <c r="HZ21">
+        <v>-5.328042507171631</v>
+      </c>
+      <c r="IA21">
+        <v>-4.715677261352539</v>
+      </c>
+      <c r="IB21">
+        <v>-1.551629781723023</v>
+      </c>
+      <c r="IC21">
+        <v>-12.55132484436035</v>
+      </c>
+      <c r="ID21">
+        <v>-6.555341720581055</v>
+      </c>
+      <c r="IE21">
+        <v>-8.971014022827148</v>
+      </c>
+      <c r="IF21">
+        <v>-8.876720428466797</v>
+      </c>
+      <c r="IG21">
+        <v>-8.368064880371094</v>
+      </c>
+      <c r="IH21">
+        <v>-7.917553901672363</v>
+      </c>
+      <c r="II21">
+        <v>-9.165247917175293</v>
+      </c>
+      <c r="IJ21">
+        <v>-7.135007381439209</v>
+      </c>
+      <c r="IK21">
+        <v>-11.63981342315674</v>
+      </c>
+      <c r="IL21">
+        <v>-3.764436960220337</v>
+      </c>
+      <c r="IM21">
+        <v>-9.826066017150879</v>
+      </c>
+      <c r="IN21">
+        <v>-10.42977333068848</v>
+      </c>
+      <c r="IO21">
+        <v>-6.662478923797607</v>
+      </c>
+      <c r="IP21">
+        <v>-10.17042446136475</v>
+      </c>
+      <c r="IQ21">
+        <v>-8.718927383422852</v>
+      </c>
+      <c r="IR21">
+        <v>-12.4332914352417</v>
+      </c>
+      <c r="IS21">
+        <v>-9.691110610961914</v>
+      </c>
+      <c r="IT21">
+        <v>-10.0819263458252</v>
+      </c>
+      <c r="IU21">
+        <v>-6.333967208862305</v>
+      </c>
+      <c r="IV21">
+        <v>-11.47782135009766</v>
+      </c>
+      <c r="IW21">
+        <v>-5.668158054351807</v>
+      </c>
+      <c r="IX21">
+        <v>-9.533348083496094</v>
+      </c>
+      <c r="IY21">
+        <v>-6.576618671417236</v>
+      </c>
+      <c r="IZ21">
+        <v>-9.844670295715332</v>
+      </c>
+      <c r="JA21">
+        <v>-9.316801071166992</v>
+      </c>
+      <c r="JB21">
+        <v>-4.496777057647705</v>
+      </c>
+      <c r="JC21">
+        <v>-8.182600975036621</v>
+      </c>
+      <c r="JD21">
+        <v>-7.186551094055176</v>
+      </c>
+      <c r="JE21">
+        <v>-8.152044296264648</v>
+      </c>
+      <c r="JF21">
+        <v>-8.072465896606445</v>
+      </c>
+      <c r="JG21">
+        <v>-4.698604583740234</v>
+      </c>
+      <c r="JH21">
+        <v>-1.530136942863464</v>
+      </c>
+      <c r="JI21">
+        <v>-4.532896518707275</v>
+      </c>
+      <c r="JJ21">
+        <v>-3.363401651382446</v>
+      </c>
+      <c r="JK21">
+        <v>-7.854813575744629</v>
+      </c>
+      <c r="JL21">
+        <v>-6.343339443206787</v>
+      </c>
+      <c r="JM21">
+        <v>-4.712197303771973</v>
+      </c>
+      <c r="JN21">
+        <v>-3.428284168243408</v>
+      </c>
+      <c r="JO21">
+        <v>-4.926649570465088</v>
+      </c>
+      <c r="JP21">
+        <v>-2.216353178024292</v>
+      </c>
+      <c r="JQ21">
+        <v>-2.140716075897217</v>
+      </c>
+      <c r="JR21">
+        <v>-1.424305200576782</v>
+      </c>
+      <c r="JS21">
+        <v>0.05881138890981674</v>
+      </c>
+      <c r="JT21">
+        <v>-2.04677677154541</v>
+      </c>
+      <c r="JU21">
+        <v>1.929474592208862</v>
+      </c>
+      <c r="JV21">
+        <v>0.5295731425285339</v>
+      </c>
+      <c r="JW21">
+        <v>-4.202113151550293</v>
+      </c>
+      <c r="JX21">
+        <v>1.395708560943604</v>
+      </c>
+      <c r="JY21">
+        <v>-0.8470553755760193</v>
+      </c>
+      <c r="JZ21">
+        <v>-3.15268874168396</v>
+      </c>
+      <c r="KA21">
+        <v>2.11176609992981</v>
+      </c>
+      <c r="KB21">
+        <v>3.007015705108643</v>
+      </c>
+      <c r="KC21">
+        <v>4.503003597259522</v>
+      </c>
+      <c r="KD21">
+        <v>2.140675067901611</v>
+      </c>
+      <c r="KE21">
+        <v>-0.7031306028366089</v>
+      </c>
+      <c r="KF21">
+        <v>2.262981176376343</v>
+      </c>
+      <c r="KG21">
+        <v>6.841522216796875</v>
+      </c>
+      <c r="KH21">
+        <v>4.647334098815918</v>
+      </c>
+      <c r="KI21">
+        <v>3.841114282608032</v>
+      </c>
+      <c r="KJ21">
+        <v>6.265204429626465</v>
+      </c>
+      <c r="KK21">
+        <v>8.446438789367676</v>
+      </c>
+      <c r="KL21">
+        <v>11.8476448059082</v>
+      </c>
+      <c r="KM21">
+        <v>10.70631217956543</v>
+      </c>
+      <c r="KN21">
+        <v>11.90477085113525</v>
+      </c>
+      <c r="KO21">
+        <v>8.943603515625</v>
+      </c>
+      <c r="KP21">
+        <v>10.43499565124512</v>
+      </c>
+      <c r="KQ21">
+        <v>10.74190521240234</v>
+      </c>
+      <c r="KR21">
+        <v>10.43186092376709</v>
+      </c>
+      <c r="KS21">
+        <v>7.451411247253418</v>
+      </c>
+      <c r="KT21">
+        <v>11.04467010498047</v>
+      </c>
+      <c r="KU21">
+        <v>11.99551105499268</v>
+      </c>
+      <c r="KV21">
+        <v>12.50710964202881</v>
+      </c>
+      <c r="KW21">
+        <v>13.8206844329834</v>
+      </c>
+      <c r="KX21">
+        <v>14.04697418212891</v>
+      </c>
+      <c r="KY21">
+        <v>14.83084297180176</v>
+      </c>
+      <c r="KZ21">
+        <v>14.86277484893799</v>
+      </c>
+      <c r="LA21">
+        <v>15.07499885559082</v>
+      </c>
+      <c r="LB21">
+        <v>13.59790420532227</v>
+      </c>
+      <c r="LC21">
+        <v>12.77341365814209</v>
+      </c>
+      <c r="LD21">
+        <v>15.39455699920654</v>
+      </c>
+      <c r="LE21">
+        <v>14.55287456512451</v>
+      </c>
+      <c r="LF21">
+        <v>13.17198848724365</v>
+      </c>
+      <c r="LG21">
+        <v>12.71596240997315</v>
+      </c>
+      <c r="LH21">
+        <v>10.8973445892334</v>
+      </c>
+      <c r="LI21">
+        <v>11.50870037078857</v>
+      </c>
+      <c r="LJ21">
+        <v>12.80831909179688</v>
+      </c>
+      <c r="LK21">
+        <v>12.0907678604126</v>
+      </c>
+      <c r="LL21">
+        <v>14.9866943359375</v>
+      </c>
+      <c r="LM21">
+        <v>14.08559036254883</v>
+      </c>
+      <c r="LN21">
+        <v>14.78601455688477</v>
+      </c>
+      <c r="LO21">
+        <v>11.06094837188721</v>
+      </c>
+      <c r="LP21">
+        <v>8.938794136047363</v>
+      </c>
+      <c r="LQ21">
+        <v>8.191794395446777</v>
+      </c>
+      <c r="LR21">
+        <v>10.92972850799561</v>
+      </c>
+      <c r="LS21">
+        <v>7.07395076751709</v>
+      </c>
+      <c r="LT21">
+        <v>11.83681774139404</v>
+      </c>
+      <c r="LU21">
+        <v>9.725031852722168</v>
+      </c>
+      <c r="LV21">
+        <v>11.24203968048096</v>
+      </c>
+      <c r="LW21">
+        <v>8.604989051818848</v>
+      </c>
+      <c r="LX21">
+        <v>7.526283264160156</v>
+      </c>
+      <c r="LY21">
+        <v>1.331504225730896</v>
+      </c>
+      <c r="LZ21">
+        <v>1.693411111831665</v>
+      </c>
+      <c r="MA21">
+        <v>0.5571392178535461</v>
+      </c>
+      <c r="MB21">
+        <v>3.335044860839844</v>
+      </c>
+      <c r="MC21">
+        <v>1.210312247276306</v>
+      </c>
+      <c r="MD21">
+        <v>3.604955911636353</v>
+      </c>
+      <c r="ME21">
+        <v>2.938384532928467</v>
+      </c>
+      <c r="MF21">
+        <v>1.452790498733521</v>
+      </c>
+      <c r="MG21">
+        <v>2.677157163619995</v>
+      </c>
+      <c r="MH21">
+        <v>2.799628734588623</v>
+      </c>
+      <c r="MI21">
+        <v>-4.974131107330322</v>
+      </c>
+      <c r="MJ21">
+        <v>-2.856075525283814</v>
+      </c>
+      <c r="MK21">
+        <v>-4.664633274078369</v>
+      </c>
+      <c r="ML21">
+        <v>-0.1882722675800324</v>
+      </c>
+      <c r="MM21">
+        <v>-2.760053634643555</v>
+      </c>
+      <c r="MN21">
+        <v>-6.232524871826172</v>
+      </c>
+      <c r="MO21">
+        <v>-5.368353366851807</v>
+      </c>
+      <c r="MP21">
+        <v>-5.328042507171631</v>
+      </c>
+      <c r="MQ21">
+        <v>-4.715677261352539</v>
+      </c>
+      <c r="MR21">
+        <v>-1.551629781723023</v>
+      </c>
+      <c r="MS21">
+        <v>-12.55132484436035</v>
+      </c>
+      <c r="MT21">
+        <v>-6.555341720581055</v>
+      </c>
+      <c r="MU21">
+        <v>-8.971014022827148</v>
+      </c>
+      <c r="MV21">
+        <v>-8.876720428466797</v>
+      </c>
+      <c r="MW21">
+        <v>-8.368064880371094</v>
+      </c>
+      <c r="MX21">
+        <v>-7.917553901672363</v>
+      </c>
+      <c r="MY21">
+        <v>-9.165247917175293</v>
+      </c>
+      <c r="MZ21">
+        <v>-7.135007381439209</v>
+      </c>
+      <c r="NA21">
+        <v>-11.63981342315674</v>
+      </c>
+      <c r="NB21">
+        <v>-3.764436960220337</v>
       </c>
     </row>
     <row r="22">
